--- a/Projeto1/Gráficos.xlsx
+++ b/Projeto1/Gráficos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Desktop\Tecnico\3Ano\IA\IA_2020_2021\Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1722860-4BB7-45C0-9F58-87CC1EACEFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C7AC9-39FB-485C-A6CA-A5703B14CBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="1536" windowWidth="10932" windowHeight="8964" xr2:uid="{7A9B85DB-8D52-4372-AA54-199ADD0B4BCD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A9B85DB-8D52-4372-AA54-199ADD0B4BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Iterative</t>
   </si>
@@ -54,6 +54,27 @@
   </si>
   <si>
     <t>Time:</t>
+  </si>
+  <si>
+    <t>Gerados</t>
+  </si>
+  <si>
+    <t>cata.txt</t>
+  </si>
+  <si>
+    <t>Testados</t>
+  </si>
+  <si>
+    <t>Expandidos</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>i1.txt</t>
+  </si>
+  <si>
+    <t>greedy</t>
   </si>
 </sst>
 </file>
@@ -3152,14 +3173,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BB7A5D-CA2D-4D9A-ACC1-2308F74F71D1}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
@@ -3230,6 +3252,161 @@
         <v>0.59984473000000005</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>990</v>
+      </c>
+      <c r="C28">
+        <v>15692</v>
+      </c>
+      <c r="D28">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>991</v>
+      </c>
+      <c r="C29">
+        <v>15693</v>
+      </c>
+      <c r="D29">
+        <v>17504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>9366</v>
+      </c>
+      <c r="C30">
+        <v>152254</v>
+      </c>
+      <c r="D30">
+        <v>17523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <v>25.220628737999998</v>
+      </c>
+      <c r="C31">
+        <v>6.9458422659999997</v>
+      </c>
+      <c r="D31">
+        <v>0.61535689999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>1432</v>
+      </c>
+      <c r="D34">
+        <v>266</v>
+      </c>
+      <c r="E34">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>51</v>
+      </c>
+      <c r="C35">
+        <v>1433</v>
+      </c>
+      <c r="D35">
+        <v>267</v>
+      </c>
+      <c r="E35">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>338</v>
+      </c>
+      <c r="C36">
+        <v>9474</v>
+      </c>
+      <c r="D36">
+        <v>1998</v>
+      </c>
+      <c r="E36">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>3.1882286000000003E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.35755801199999998</v>
+      </c>
+      <c r="D37">
+        <v>0.96826815605000005</v>
+      </c>
+      <c r="E37">
+        <v>5.7842730000000002E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
